--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2247.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2247.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233581447543222</v>
+        <v>1.139517664909363</v>
       </c>
       <c r="B1">
-        <v>2.437804463496483</v>
+        <v>2.596094369888306</v>
       </c>
       <c r="C1">
-        <v>7.429809405671874</v>
+        <v>6.093301773071289</v>
       </c>
       <c r="D1">
-        <v>2.295917105582896</v>
+        <v>2.143232822418213</v>
       </c>
       <c r="E1">
-        <v>1.147985567844439</v>
+        <v>1.234320878982544</v>
       </c>
     </row>
   </sheetData>
